--- a/03_MERGE/03_BOM/BOM_CAM_v120.xlsx
+++ b/03_MERGE/03_BOM/BOM_CAM_v120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\3_Camera_Board_v101\NANORACK_V2_CAMERA_1.0.1_HW\03_MERGE\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28043E85-95F5-45B2-BB25-82A38C481CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1267F-BD17-44D1-94F3-5B975D4703FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{AD122143-FC3A-44AE-8F18-72647474523C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>SC-88</t>
-  </si>
-  <si>
-    <t>TLV75533PDBVR</t>
   </si>
   <si>
     <t>U12</t>
@@ -744,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79715689-F68C-418F-A4E8-73976FAA7E86}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +754,7 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -796,10 +794,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G2" s="1">
         <v>49</v>
@@ -819,10 +817,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1">
         <v>23</v>
@@ -842,10 +840,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -865,10 +863,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -888,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>24</v>
@@ -911,10 +909,10 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G7" s="1">
         <v>27</v>
@@ -934,10 +932,10 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -957,10 +955,10 @@
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -980,16 +978,16 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,16 +1004,16 @@
         <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1032,10 +1030,10 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G12" s="1">
         <v>4</v>
@@ -1055,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>44</v>
@@ -1078,7 +1076,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
@@ -1088,198 +1086,201 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
+      <c r="A15" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
